--- a/data/trans_dic/P25_10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25_10-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece varices en las piernas</t>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,12 +705,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,38%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>2,69%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>4,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>1,26%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,85</t>
+          <t>0,6; 6,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,37</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 8,47</t>
+          <t>0,86; 10,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 11,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 9,68</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 11,1</t>
+          <t>2,83; 10,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,41</t>
+          <t>2,62; 8,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,71</t>
+          <t>3,16; 10,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,83</t>
+          <t>3,46; 14,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 8,0</t>
+          <t>0,84; 7,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,49</t>
+          <t>1,36; 7,63</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 7,16</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 5,42</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 8,24</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2,09; 8,38</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 5,09</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>9,39%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>11,92%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>6,96%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>6,31%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,0; 3,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,77</t>
+          <t>0,33; 4,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,05</t>
+          <t>1,2; 5,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,83</t>
+          <t>1,83; 8,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,43; 31,13</t>
+          <t>0,88; 7,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 16,37</t>
+          <t>1,54; 10,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,1</t>
+          <t>17,56; 30,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 14,16</t>
+          <t>8,16; 17,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,45; 15,81</t>
+          <t>7,92; 16,09</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,41</t>
+          <t>12,64; 25,01</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,98</t>
+          <t>5,6; 14,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 9,27</t>
+          <t>11,82; 24,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8,31; 15,2</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,24; 8,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 9,51</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>7,55; 14,61</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>4,14; 9,45</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 14,72</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>6,03%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>22,65%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>17,38%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>13,36%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13,9%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>11,37%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>11,28%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>11,03%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15,89%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
         <is>
           <t>11,39%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>15,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,71</t>
+          <t>2,32; 7,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,03</t>
+          <t>1,33; 5,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,39</t>
+          <t>1,56; 5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 10,34</t>
+          <t>3,51; 9,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 27,78</t>
+          <t>3,47; 9,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,12; 23,28</t>
+          <t>6,98; 15,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,17; 22,83</t>
+          <t>18,6; 28,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,8; 21,94</t>
+          <t>15,92; 23,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,43</t>
+          <t>15,23; 23,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,94; 13,84</t>
+          <t>20,08; 30,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,63</t>
+          <t>13,05; 22,74</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,83; 14,27</t>
+          <t>16,52; 26,92</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,23; 17,05</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>9,13; 13,83</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 13,83</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 19,52</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8,84; 14,49</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12,04; 19,16</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1305,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1086,52 +1315,82 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>12,05%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>9,98%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>29,85%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>26,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>18,15%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,23%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,58%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>22,32%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,31</t>
+          <t>2,94; 8,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,6</t>
+          <t>4,78; 10,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 13,86</t>
+          <t>6,87; 13,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,7; 15,01</t>
+          <t>8,65; 16,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,89; 35,17</t>
+          <t>6,22; 14,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 29,7</t>
+          <t>9,56; 19,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,21</t>
+          <t>25,84; 36,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,75; 29,39</t>
+          <t>20,62; 29,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,35</t>
+          <t>21,89; 31,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,99; 19,93</t>
+          <t>31,27; 41,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,13</t>
+          <t>18,83; 30,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,32; 20,55</t>
+          <t>26,04; 37,8</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 21,58</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 19,61</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>15,47; 21,27</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>20,51; 27,47</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13,28; 20,16</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18,48; 26,04</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>20,75%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>36,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>29,18%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,77%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>36,72%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>18,24%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>19,39%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>21,47%</t>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,38%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>21,48%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>28,9%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 12,87</t>
+          <t>5,32; 12,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 13,27</t>
+          <t>6,26; 13,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,14</t>
+          <t>7,92; 15,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 18,84</t>
+          <t>9,66; 18,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,25; 32,94</t>
+          <t>8,74; 18,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,69; 32,64</t>
+          <t>15,47; 26,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,83; 32,75</t>
+          <t>21,56; 33,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,65; 35,45</t>
+          <t>21,71; 32,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 21,65</t>
+          <t>22,41; 33,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 21,71</t>
+          <t>29,92; 44,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 22,74</t>
+          <t>23,24; 35,49</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 25,7</t>
+          <t>30,02; 43,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 22,03</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 21,68</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16,34; 23,26</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20,78; 30,03</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>17,69; 25,59</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>24,23; 33,6</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>9,51%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>36,83%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>45,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>33,13%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>39,17%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>28,61%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>23,41%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>22,99%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>29,63%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,42; 23,72</t>
+          <t>11,07; 22,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,6; 25,79</t>
+          <t>11,39; 25,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,33</t>
+          <t>6,47; 18,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 15,65</t>
+          <t>10,07; 22,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,16; 44,15</t>
+          <t>5,37; 16,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,11; 39,23</t>
+          <t>10,68; 23,2</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,13; 37,62</t>
+          <t>31,47; 45,15</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,96; 42,64</t>
+          <t>27,1; 39,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,42; 32,66</t>
+          <t>26,94; 40,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,63; 31,26</t>
+          <t>36,61; 53,72</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,24; 27,79</t>
+          <t>25,21; 42,73</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,99; 29,31</t>
+          <t>30,7; 47,42</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 33,79</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>22,01; 30,8</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 28,19</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>27,34; 38,63</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 29,16</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>24,28; 35,03</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>7,09%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>25,45%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,74%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>20,6%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>16,05%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>14,03%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>26,29%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>19,5%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>13,84%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,86</t>
+          <t>4,93; 7,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,01</t>
+          <t>5,22; 8,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,42</t>
+          <t>5,38; 8,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,72</t>
+          <t>7,12; 10,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,91</t>
+          <t>5,68; 8,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,93; 23,13</t>
+          <t>9,35; 13,55</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,16</t>
+          <t>23,39; 28,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,07; 23,31</t>
+          <t>19,11; 23,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,51</t>
+          <t>19,42; 23,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 15,34</t>
+          <t>27,01; 32,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,91; 15,37</t>
+          <t>18,03; 23,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,38; 15,47</t>
+          <t>23,75; 29,1</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 17,81</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 15,21</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 15,5</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 21,49</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 15,6</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 20,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12474</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6667</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16581</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4161</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28658</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26204</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32005</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>36574</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1160</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>41132</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>32871</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>48587</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>40735</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3012; 35080</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21102</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4396; 52973</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19357</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2472</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13246; 50244</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>13500; 46279</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>16259; 55577</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16398; 69650</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>314; 2821</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>524; 2940</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>22030; 69502</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>18119; 56307</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>26425; 84384</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19727; 79237</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2621</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>865; 4203</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6217</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7715</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17177</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24661</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1688</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>2401</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>119597</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>59484</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60231</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>93044</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4434</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7865</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>125814</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>67199</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>77409</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>117705</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>6122</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>10266</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21698</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1888; 22941</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7121; 33367</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10548; 50670</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>438; 3835</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>757; 5264</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>90678; 159192</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41193; 87394</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>40985; 83248</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63856; 126350</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2641; 6661</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5403; 11064</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>90535; 165610</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>45409; 93052</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>54764; 105717</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>81707; 158070</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>4017; 9179</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>6910; 13944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29611</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19704</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20883</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40389</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3633</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6305</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>164457</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>139153</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136086</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>181085</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9370</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11705</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>194068</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>158856</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>156968</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>221474</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>13003</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15834; 49178</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9064; 37254</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10615; 35719</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23843; 65685</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2087; 5778</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4216; 9395</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>132511; 204376</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>114133; 169456</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>108413; 164896</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>143608; 216802</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7035; 12262</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9060; 14768</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>156849; 238124</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>127524; 193296</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>127375; 192558</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>180604; 272115</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>10086; 16538</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>13882; 22088</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>34985</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47506</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61515</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>79045</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5816</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7788</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>206828</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>169471</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>173796</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>240160</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12533</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>16664</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>241813</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>216978</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>235311</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>319205</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>18349</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>24452</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>19048; 52802</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30882; 66016</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43731; 84487</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>56752; 109792</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3623; 8728</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5417; 10867</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>176643; 247692</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>138476; 200200</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>144463; 204851</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>206846; 276885</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9871; 15766</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13772; 19988</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>203568; 287209</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>182741; 258320</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>200593; 275785</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>270292; 361947</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>14700; 22319</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20243; 28529</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>42404</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>48872</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>54122</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>66745</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>5795</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9318</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>136646</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>134812</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>141300</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>190981</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14233</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17200</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>179050</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>183684</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>195423</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>257726</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>20028</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>26518</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26336; 62313</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31548; 69407</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39061; 75473</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>47841; 92677</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3890; 8066</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>6946; 12117</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>108784; 167605</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>109205; 162917</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>115415; 172255</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>154648; 228814</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>11336; 17307</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14064; 20257</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>144372; 220303</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>149589; 218291</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>164851; 234615</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>210244; 303866</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>16497; 23867</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>22232; 30827</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>89304</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>90878</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>56470</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>87772</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4453</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>7509</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>271996</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>230719</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>229466</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>329798</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20626</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>24941</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>361300</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>321597</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>285936</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>417570</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>25079</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>32450</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>60360; 121322</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>59997; 134624</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>34433; 100090</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>57028; 127222</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2517; 7500</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4897; 10638</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>225872; 324083</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>187741; 275060</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>185711; 281943</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>267685; 392772</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>15692; 26602</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19547; 30193</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>305927; 426804</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>268378; 375567</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>232807; 344432</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>354739; 501315</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>19246; 31806</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>26592; 38361</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>214995</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>221342</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>226748</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>302773</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21384</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>34044</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>928181</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>759844</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>772885</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1071642</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>62202</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>79535</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1143177</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>981185</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>999633</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1374415</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>83586</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>113579</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>169987; 266274</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>179839; 279858</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>185464; 281685</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>245324; 364361</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>17141; 26498</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>28132; 40790</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>842974; 1017761</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>688866; 841432</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>700496; 859394</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>973337; 1173715</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>54452; 70253</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>71846; 88030</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1043528; 1255642</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>891740; 1072821</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>904568; 1093392</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1263025; 1514391</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>74698; 94199</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>103531; 124391</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
